--- a/form_templates/235.xlsx
+++ b/form_templates/235.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamarti\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svenf\Desktop\beer\form_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B710160-A9C8-48DB-A191-D30154299D96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-915" yWindow="-255" windowWidth="21630" windowHeight="5385"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary Page" sheetId="1" r:id="rId1"/>
@@ -21,22 +22,27 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">Schedules!$A$1:$F$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Summary Page'!$A$1:$C$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>TRADE NAME:</t>
   </si>
   <si>
-    <t>ADDRESS:</t>
-  </si>
-  <si>
-    <t>PHONE NUMBER:</t>
-  </si>
-  <si>
     <t>TABC USE ONLY</t>
   </si>
   <si>
@@ -107,9 +113,6 @@
   </si>
   <si>
     <t>NUMBER OF KEGS AND CASES</t>
-  </si>
-  <si>
-    <t>CITY:                                                         ZIP CODE:</t>
   </si>
   <si>
     <r>
@@ -280,9 +283,6 @@
     </r>
   </si>
   <si>
-    <t>EMAIL:</t>
-  </si>
-  <si>
     <r>
       <t>CARRIER CLAIMS &amp;, LAB USE, DESTRUCTIONS - Schedule E  (</t>
     </r>
@@ -773,11 +773,29 @@
       <t xml:space="preserve"> (Sum of Lines 12,13, &amp; 14)</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TRADE NAME: 111 Brewing</t>
+  </si>
+  <si>
+    <t>ADDRESS: 111 S. Fannin Ave</t>
+  </si>
+  <si>
+    <t>EMAIL: fulenchek@gmail.com</t>
+  </si>
+  <si>
+    <t>CITY:  Denison                                                ZIP CODE:  75020</t>
+  </si>
+  <si>
+    <t>PHONE NUMBER: 425-802-1263</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000"/>
@@ -2047,7 +2065,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2117,9 +2135,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2162,7 +2177,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2235,7 +2249,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="60" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="63" xfId="2" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2272,9 +2285,7 @@
     <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="80" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="73" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2301,10 +2312,57 @@
     <xf numFmtId="17" fontId="9" fillId="3" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2350,45 +2408,6 @@
     <xf numFmtId="165" fontId="7" fillId="3" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="51" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="52" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="53" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -2422,8 +2441,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2441,20 +2467,19 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="17" fontId="9" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_C-230" xfId="2"/>
+    <cellStyle name="Normal_C-230" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2491,7 +2516,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2875,14 +2906,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2894,377 +2925,389 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C1" s="10" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="21.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="150" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="151"/>
+      <c r="A2" s="164" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="165"/>
       <c r="C2" s="19" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="21" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="152" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="153"/>
+      <c r="A3" s="166" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="167"/>
       <c r="C3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="135" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="136"/>
+      <c r="A4" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="129"/>
       <c r="C4" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="2" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108"/>
-      <c r="B5" s="109"/>
+      <c r="A5" s="103"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="2" customFormat="1" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="148" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="148"/>
-      <c r="C6" s="148"/>
+      <c r="A6" s="162" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
+      <c r="A7" s="163"/>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
     </row>
     <row r="8" spans="1:3" ht="23.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="95" t="s">
-        <v>55</v>
+        <v>87</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>51</v>
       </c>
       <c r="C8" s="30"/>
     </row>
     <row r="9" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="96" t="s">
-        <v>48</v>
+        <v>88</v>
+      </c>
+      <c r="B9" s="92" t="s">
+        <v>89</v>
       </c>
       <c r="C9" s="32"/>
     </row>
     <row r="10" spans="1:3" ht="23.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="97" t="s">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="B10" s="93" t="s">
+        <v>91</v>
       </c>
       <c r="C10" s="34"/>
     </row>
     <row r="11" spans="1:3" ht="21" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39"/>
-      <c r="B11" s="154" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="155"/>
+      <c r="B11" s="168" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="169"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="156" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="157"/>
+      <c r="B12" s="170" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="171"/>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="126" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="118" t="s">
-        <v>50</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="121" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="113" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="38">
-        <v>0</v>
-      </c>
-      <c r="C14" s="119"/>
+      <c r="A14" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="137" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="114"/>
     </row>
     <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="111" t="s">
+      <c r="A15" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="115"/>
+    </row>
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="106" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="115"/>
+    </row>
+    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="107" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="114"/>
+    </row>
+    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="108" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="138" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="116"/>
+    </row>
+    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="109" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="117"/>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="110" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="118"/>
+    </row>
+    <row r="21" spans="1:3" s="95" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="107" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="137" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="119"/>
+    </row>
+    <row r="22" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="111" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="120"/>
+    </row>
+    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="120"/>
-    </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="111" t="s">
+      <c r="B23" s="142" t="s">
+        <v>86</v>
+      </c>
+      <c r="C23" s="126"/>
+    </row>
+    <row r="24" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="112" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="172">
+        <v>0.193548</v>
+      </c>
+      <c r="C24" s="173"/>
+    </row>
+    <row r="25" spans="1:3" s="102" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="122"/>
+      <c r="C25" s="122"/>
+    </row>
+    <row r="26" spans="1:3" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="136" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="123"/>
+    </row>
+    <row r="27" spans="1:3" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="135" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="38"/>
-      <c r="C16" s="120"/>
-    </row>
-    <row r="17" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="112" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="119"/>
-    </row>
-    <row r="18" spans="1:3" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="42">
-        <f>B14+B15+B16+B17</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="121"/>
-    </row>
-    <row r="19" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="114" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="41">
-        <v>0</v>
-      </c>
-      <c r="C19" s="122"/>
-    </row>
-    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="115" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="123"/>
-    </row>
-    <row r="21" spans="1:3" s="99" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="112" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="124"/>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" s="103">
-        <f>B19+B20+B21</f>
-        <v>0</v>
-      </c>
-      <c r="C22" s="125"/>
-    </row>
-    <row r="23" spans="1:3" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="132" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="43">
-        <f>B18-B22</f>
-        <v>0</v>
-      </c>
-      <c r="C23" s="133"/>
-    </row>
-    <row r="24" spans="1:3" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="117" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="158">
-        <v>0.193548</v>
-      </c>
-      <c r="C24" s="159"/>
-    </row>
-    <row r="25" spans="1:3" s="107" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="127"/>
-      <c r="C25" s="127"/>
-    </row>
-    <row r="26" spans="1:3" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="144" t="s">
+      <c r="B27" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-    </row>
-    <row r="27" spans="1:3" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="143" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="123"/>
+      <c r="C27" s="118"/>
     </row>
     <row r="28" spans="1:3" s="40" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="142" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="130"/>
-      <c r="C28" s="131"/>
+      <c r="A28" s="134" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="124"/>
     </row>
     <row r="29" spans="1:3" s="40" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="142" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" s="130">
-        <f>SUM(B26:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="121"/>
+      <c r="A29" s="134" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="116"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="145" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="146"/>
-      <c r="C30" s="146"/>
+      <c r="A30" s="159" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="160"/>
+      <c r="C30" s="160"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="147"/>
-      <c r="B31" s="147"/>
-      <c r="C31" s="147"/>
+      <c r="A31" s="161"/>
+      <c r="B31" s="161"/>
+      <c r="C31" s="161"/>
     </row>
     <row r="32" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="88" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="160">
-        <f>B23*B24</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="161"/>
+      <c r="A32" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="147"/>
     </row>
     <row r="33" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="67" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="160">
-        <f>B32*0.02</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="161"/>
+      <c r="A33" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="146" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="147"/>
     </row>
     <row r="34" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="168"/>
-      <c r="C34" s="169"/>
+      <c r="A34" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="154" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="155"/>
     </row>
     <row r="35" spans="1:3" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="68" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="166">
-        <f>B32-B33-B34</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="167"/>
+      <c r="A35" s="64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="152" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="153"/>
     </row>
     <row r="36" spans="1:3" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="163"/>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
+      <c r="A36" s="149"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="164"/>
-      <c r="B37" s="164"/>
-      <c r="C37" s="164"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="150"/>
+      <c r="C37" s="150"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="162" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="162"/>
-      <c r="C38" s="162"/>
+      <c r="A38" s="148" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="148"/>
+      <c r="C38" s="148"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="162"/>
-      <c r="B39" s="162"/>
-      <c r="C39" s="162"/>
+      <c r="A39" s="148"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="148"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="170"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="164"/>
+      <c r="A40" s="156"/>
+      <c r="B40" s="150"/>
+      <c r="C40" s="150"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="170"/>
-      <c r="B41" s="164"/>
-      <c r="C41" s="164"/>
+      <c r="A41" s="156"/>
+      <c r="B41" s="150"/>
+      <c r="C41" s="150"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="170"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="164"/>
+      <c r="A42" s="156"/>
+      <c r="B42" s="150"/>
+      <c r="C42" s="150"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="171"/>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
+      <c r="A43" s="157"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="158"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="165"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
+      <c r="A45" s="151"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
     </row>
     <row r="46" spans="1:3" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A46" s="162" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="162"/>
-      <c r="C46" s="162"/>
+      <c r="A46" s="148" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" s="148"/>
+      <c r="C46" s="148"/>
     </row>
     <row r="47" spans="1:3" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A47" s="162"/>
-      <c r="B47" s="162"/>
-      <c r="C47" s="162"/>
+      <c r="A47" s="148"/>
+      <c r="B47" s="148"/>
+      <c r="C47" s="148"/>
     </row>
     <row r="48" spans="1:3" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A48" s="162"/>
-      <c r="B48" s="162"/>
-      <c r="C48" s="162"/>
+      <c r="A48" s="148"/>
+      <c r="B48" s="148"/>
+      <c r="C48" s="148"/>
     </row>
     <row r="49" spans="1:3" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A49" s="162"/>
-      <c r="B49" s="162"/>
-      <c r="C49" s="162"/>
+      <c r="A49" s="148"/>
+      <c r="B49" s="148"/>
+      <c r="C49" s="148"/>
     </row>
     <row r="50" spans="1:3" s="5" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A50" s="162"/>
-      <c r="B50" s="162"/>
-      <c r="C50" s="162"/>
+      <c r="A50" s="148"/>
+      <c r="B50" s="148"/>
+      <c r="C50" s="148"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="162"/>
-      <c r="B51" s="162"/>
-      <c r="C51" s="162"/>
+      <c r="A51" s="148"/>
+      <c r="B51" s="148"/>
+      <c r="C51" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A30:C31"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B24:C24"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="A46:C51"/>
     <mergeCell ref="A38:C39"/>
@@ -3276,13 +3319,6 @@
     <mergeCell ref="A40:A43"/>
     <mergeCell ref="B40:B43"/>
     <mergeCell ref="C40:C43"/>
-    <mergeCell ref="A30:C31"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -3296,14 +3332,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr transitionEvaluation="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView defaultGridColor="0" view="pageLayout" topLeftCell="A25" colorId="22" zoomScale="85" zoomScaleNormal="50" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3631,74 +3667,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="F1" s="44" t="s">
-        <v>83</v>
+      <c r="F1" s="41" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="175" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="175"/>
+      <c r="A2" s="176" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="106"/>
+      <c r="A4" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="101"/>
     </row>
     <row r="5" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="45" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>31</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="139" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="48" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
@@ -3707,7 +3743,7 @@
       <c r="C7" s="13"/>
       <c r="D7" s="14"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="49"/>
+      <c r="F7" s="46"/>
     </row>
     <row r="8" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
@@ -3715,7 +3751,7 @@
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="49"/>
+      <c r="F8" s="46"/>
     </row>
     <row r="9" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -3723,217 +3759,217 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="49"/>
+      <c r="F9" s="46"/>
     </row>
     <row r="10" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="176" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="177"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="177"/>
+      <c r="A10" s="177" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
       <c r="E10" s="17"/>
-      <c r="F10" s="92"/>
-    </row>
-    <row r="11" spans="1:6" s="64" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="63"/>
+      <c r="F10" s="88"/>
+    </row>
+    <row r="11" spans="1:6" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="60"/>
     </row>
     <row r="12" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="178" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="178"/>
-      <c r="C12" s="178"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="A12" s="179" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="179"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="49"/>
     </row>
     <row r="13" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="179" t="s">
-        <v>79</v>
-      </c>
-      <c r="B13" s="179"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="179"/>
-      <c r="E13" s="179"/>
-      <c r="F13" s="179"/>
+      <c r="A13" s="180" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="180"/>
+      <c r="C13" s="180"/>
+      <c r="D13" s="180"/>
+      <c r="E13" s="180"/>
+      <c r="F13" s="180"/>
     </row>
     <row r="14" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>35</v>
+        <v>23</v>
+      </c>
+      <c r="F14" s="43" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="132" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="97"/>
+    </row>
+    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="97"/>
+    </row>
+    <row r="19" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="97"/>
+    </row>
+    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="183" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="184"/>
+      <c r="C20" s="184"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="98"/>
+    </row>
+    <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="E15" s="139" t="s">
+      <c r="B21" s="181"/>
+      <c r="C21" s="181"/>
+      <c r="D21" s="181"/>
+      <c r="E21" s="181"/>
+      <c r="F21" s="180"/>
+    </row>
+    <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="48" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="57"/>
-    </row>
-    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="101"/>
-    </row>
-    <row r="18" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="101"/>
-    </row>
-    <row r="19" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="101"/>
-    </row>
-    <row r="20" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="182" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="183"/>
-      <c r="C20" s="183"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="102"/>
-    </row>
-    <row r="21" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="180" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="180"/>
-      <c r="C21" s="180"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="179"/>
-    </row>
-    <row r="22" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
-    </row>
-    <row r="23" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="180" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="180"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="180"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="180"/>
+      <c r="B23" s="181"/>
+      <c r="C23" s="181"/>
+      <c r="D23" s="181"/>
+      <c r="E23" s="181"/>
+      <c r="F23" s="181"/>
     </row>
     <row r="24" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="57"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="180" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="180"/>
-      <c r="C25" s="180"/>
-      <c r="D25" s="180"/>
-      <c r="E25" s="180"/>
-      <c r="F25" s="180"/>
+      <c r="A25" s="181" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="181"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="181"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="181"/>
     </row>
     <row r="26" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="57"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="176" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="181"/>
+      <c r="A27" s="177" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="178"/>
+      <c r="C27" s="178"/>
+      <c r="D27" s="182"/>
       <c r="E27" s="17"/>
-      <c r="F27" s="60"/>
+      <c r="F27" s="57"/>
     </row>
     <row r="28" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="173" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" s="173"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="173"/>
-      <c r="E29" s="173"/>
-      <c r="F29" s="173"/>
+      <c r="A29" s="174" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="174"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="174"/>
+      <c r="F29" s="174"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="A30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="174"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
+      <c r="A31" s="175"/>
+      <c r="B31" s="175"/>
+      <c r="C31" s="175"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3960,11 +3996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:M4"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3973,94 +4009,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="L1" s="186" t="s">
-        <v>82</v>
-      </c>
-      <c r="M1" s="187"/>
+      <c r="L1" s="190" t="s">
+        <v>78</v>
+      </c>
+      <c r="M1" s="191"/>
     </row>
     <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="188" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
+      <c r="A2" s="192" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="192"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
     </row>
     <row r="3" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="189" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
+      <c r="A3" s="193" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="190" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="191"/>
-      <c r="D4" s="191"/>
-      <c r="E4" s="191"/>
-      <c r="F4" s="191"/>
-      <c r="G4" s="191"/>
-      <c r="H4" s="191"/>
-      <c r="I4" s="191"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="191"/>
-      <c r="L4" s="191"/>
-      <c r="M4" s="192"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="194" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+      <c r="L4" s="195"/>
+      <c r="M4" s="196"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>16</v>
-      </c>
       <c r="D5" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="140" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+        <v>21</v>
+      </c>
+      <c r="G5" s="133" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="199"/>
+      <c r="I5" s="200"/>
+      <c r="J5" s="200"/>
       <c r="K5" s="27"/>
-      <c r="L5" s="194" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="195"/>
+      <c r="L5" s="188" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="189"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
@@ -4074,8 +4110,8 @@
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="184"/>
-      <c r="M6" s="185"/>
+      <c r="L6" s="187"/>
+      <c r="M6" s="186"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
@@ -4089,8 +4125,8 @@
       <c r="I7" s="18"/>
       <c r="J7" s="18"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="184"/>
-      <c r="M7" s="185"/>
+      <c r="L7" s="187"/>
+      <c r="M7" s="186"/>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
@@ -4104,8 +4140,8 @@
       <c r="I8" s="18"/>
       <c r="J8" s="18"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="185"/>
+      <c r="L8" s="187"/>
+      <c r="M8" s="186"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
@@ -4119,8 +4155,8 @@
       <c r="I9" s="18"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="184"/>
-      <c r="M9" s="185"/>
+      <c r="L9" s="187"/>
+      <c r="M9" s="186"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
@@ -4134,8 +4170,8 @@
       <c r="I10" s="18"/>
       <c r="J10" s="18"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="184"/>
-      <c r="M10" s="185"/>
+      <c r="L10" s="187"/>
+      <c r="M10" s="186"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
@@ -4149,8 +4185,8 @@
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="184"/>
-      <c r="M11" s="185"/>
+      <c r="L11" s="187"/>
+      <c r="M11" s="186"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
@@ -4164,8 +4200,8 @@
       <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="184"/>
-      <c r="M12" s="185"/>
+      <c r="L12" s="187"/>
+      <c r="M12" s="186"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
@@ -4179,8 +4215,8 @@
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="184"/>
-      <c r="M13" s="185"/>
+      <c r="L13" s="187"/>
+      <c r="M13" s="186"/>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
@@ -4194,8 +4230,8 @@
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="184"/>
-      <c r="M14" s="185"/>
+      <c r="L14" s="187"/>
+      <c r="M14" s="186"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
@@ -4209,8 +4245,8 @@
       <c r="I15" s="18"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
-      <c r="L15" s="184"/>
-      <c r="M15" s="185"/>
+      <c r="L15" s="187"/>
+      <c r="M15" s="186"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18"/>
@@ -4224,8 +4260,8 @@
       <c r="I16" s="18"/>
       <c r="J16" s="18"/>
       <c r="K16" s="18"/>
-      <c r="L16" s="184"/>
-      <c r="M16" s="185"/>
+      <c r="L16" s="187"/>
+      <c r="M16" s="186"/>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18"/>
@@ -4239,8 +4275,8 @@
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
       <c r="K17" s="18"/>
-      <c r="L17" s="184"/>
-      <c r="M17" s="185"/>
+      <c r="L17" s="187"/>
+      <c r="M17" s="186"/>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36"/>
@@ -4254,8 +4290,8 @@
       <c r="I18" s="18"/>
       <c r="J18" s="18"/>
       <c r="K18" s="18"/>
-      <c r="L18" s="184"/>
-      <c r="M18" s="185"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="186"/>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18"/>
@@ -4269,8 +4305,8 @@
       <c r="I19" s="18"/>
       <c r="J19" s="18"/>
       <c r="K19" s="18"/>
-      <c r="L19" s="184"/>
-      <c r="M19" s="185"/>
+      <c r="L19" s="187"/>
+      <c r="M19" s="186"/>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18"/>
@@ -4284,8 +4320,8 @@
       <c r="I20" s="18"/>
       <c r="J20" s="18"/>
       <c r="K20" s="18"/>
-      <c r="L20" s="184"/>
-      <c r="M20" s="185"/>
+      <c r="L20" s="187"/>
+      <c r="M20" s="186"/>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18"/>
@@ -4299,8 +4335,8 @@
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
       <c r="K21" s="18"/>
-      <c r="L21" s="184"/>
-      <c r="M21" s="185"/>
+      <c r="L21" s="187"/>
+      <c r="M21" s="186"/>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
@@ -4314,8 +4350,8 @@
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
       <c r="K22" s="18"/>
-      <c r="L22" s="184"/>
-      <c r="M22" s="185"/>
+      <c r="L22" s="187"/>
+      <c r="M22" s="186"/>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -4329,8 +4365,8 @@
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
       <c r="K23" s="18"/>
-      <c r="L23" s="184"/>
-      <c r="M23" s="185"/>
+      <c r="L23" s="187"/>
+      <c r="M23" s="186"/>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18"/>
@@ -4344,8 +4380,8 @@
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
       <c r="K24" s="18"/>
-      <c r="L24" s="184"/>
-      <c r="M24" s="185"/>
+      <c r="L24" s="187"/>
+      <c r="M24" s="186"/>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18"/>
@@ -4359,8 +4395,8 @@
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
       <c r="K25" s="18"/>
-      <c r="L25" s="184"/>
-      <c r="M25" s="185"/>
+      <c r="L25" s="187"/>
+      <c r="M25" s="186"/>
     </row>
     <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18"/>
@@ -4374,8 +4410,8 @@
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
       <c r="K26" s="18"/>
-      <c r="L26" s="184"/>
-      <c r="M26" s="185"/>
+      <c r="L26" s="187"/>
+      <c r="M26" s="186"/>
     </row>
     <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18"/>
@@ -4389,8 +4425,8 @@
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
       <c r="K27" s="18"/>
-      <c r="L27" s="184"/>
-      <c r="M27" s="185"/>
+      <c r="L27" s="187"/>
+      <c r="M27" s="186"/>
     </row>
     <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18"/>
@@ -4404,8 +4440,8 @@
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
       <c r="K28" s="18"/>
-      <c r="L28" s="184"/>
-      <c r="M28" s="185"/>
+      <c r="L28" s="187"/>
+      <c r="M28" s="186"/>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18"/>
@@ -4419,8 +4455,8 @@
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
       <c r="K29" s="18"/>
-      <c r="L29" s="184"/>
-      <c r="M29" s="185"/>
+      <c r="L29" s="187"/>
+      <c r="M29" s="186"/>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18"/>
@@ -4434,37 +4470,49 @@
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
-      <c r="L30" s="184"/>
-      <c r="M30" s="185"/>
+      <c r="L30" s="187"/>
+      <c r="M30" s="186"/>
     </row>
     <row r="31" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="137" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="138"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="138"/>
-      <c r="I31" s="138"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="193">
-        <f>SUM(L6:M29)</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="185"/>
+      <c r="A31" s="130" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="131"/>
+      <c r="C31" s="131"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="185"/>
+      <c r="M31" s="186"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="98" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="93"/>
+      <c r="A32" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="A3:M3"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
     <mergeCell ref="L31:M31"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="L5:M5"/>
@@ -4481,21 +4529,6 @@
     <mergeCell ref="L24:M24"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A3:M3"/>
-    <mergeCell ref="B4:M4"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -4511,7 +4544,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:H44"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
@@ -4530,411 +4563,411 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="164" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="164"/>
-      <c r="G2" s="79" t="s">
-        <v>41</v>
+      <c r="B2" s="198"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="150" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="150"/>
+      <c r="G2" s="75" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G3" s="71" t="s">
-        <v>42</v>
+      <c r="G3" s="67" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H4" s="71"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="73" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="70" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="91"/>
-      <c r="D5" s="91" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="75" t="s">
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="73" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="77" t="s">
+      <c r="G6" s="74" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="74" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="74" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="78" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="89"/>
+      <c r="C7" s="85"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="49"/>
+      <c r="G7" s="46"/>
     </row>
     <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="89"/>
+      <c r="C8" s="85"/>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
       <c r="F8" s="15"/>
-      <c r="G8" s="49"/>
+      <c r="G8" s="46"/>
     </row>
     <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="89"/>
+      <c r="C9" s="85"/>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="49"/>
+      <c r="G9" s="46"/>
     </row>
     <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="89"/>
+      <c r="C10" s="85"/>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="49"/>
+      <c r="G10" s="46"/>
     </row>
     <row r="11" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
-      <c r="C11" s="89"/>
+      <c r="C11" s="85"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="49"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="46"/>
     </row>
     <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
-      <c r="C12" s="89"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="49"/>
+      <c r="G12" s="46"/>
     </row>
     <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="89"/>
+      <c r="C13" s="85"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="15"/>
-      <c r="G13" s="49"/>
+      <c r="G13" s="46"/>
     </row>
     <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="89"/>
+      <c r="C14" s="85"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="15"/>
-      <c r="G14" s="49"/>
+      <c r="G14" s="46"/>
     </row>
     <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
-      <c r="C15" s="89"/>
+      <c r="C15" s="85"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="15"/>
-      <c r="G15" s="49"/>
+      <c r="G15" s="46"/>
     </row>
     <row r="16" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
-      <c r="C16" s="89"/>
+      <c r="C16" s="85"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="49"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="46"/>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
-      <c r="C17" s="89"/>
+      <c r="C17" s="85"/>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
       <c r="F17" s="15"/>
-      <c r="G17" s="49"/>
+      <c r="G17" s="46"/>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
-      <c r="C18" s="89"/>
+      <c r="C18" s="85"/>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="49"/>
+      <c r="G18" s="46"/>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="89"/>
+      <c r="C19" s="85"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
       <c r="F19" s="15"/>
-      <c r="G19" s="49"/>
+      <c r="G19" s="46"/>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
-      <c r="C20" s="89"/>
+      <c r="C20" s="85"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="49"/>
+      <c r="G20" s="46"/>
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
-      <c r="C21" s="89"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="49"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="46"/>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
-      <c r="C22" s="89"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="14"/>
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
-      <c r="G22" s="49"/>
+      <c r="G22" s="46"/>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
-      <c r="C23" s="89"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
-      <c r="G23" s="49"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
-      <c r="C24" s="89"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="14"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
-      <c r="G24" s="49"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
-      <c r="C25" s="89"/>
+      <c r="C25" s="85"/>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="49"/>
+      <c r="G25" s="46"/>
     </row>
     <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="89"/>
+      <c r="C26" s="85"/>
       <c r="D26" s="14"/>
       <c r="E26" s="14"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="49"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="46"/>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="89"/>
+      <c r="C27" s="85"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
-      <c r="G27" s="49"/>
+      <c r="G27" s="46"/>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="12"/>
-      <c r="C28" s="89"/>
+      <c r="C28" s="85"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
-      <c r="G28" s="49"/>
+      <c r="G28" s="46"/>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
       <c r="B29" s="12"/>
-      <c r="C29" s="89"/>
+      <c r="C29" s="85"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
-      <c r="G29" s="49"/>
+      <c r="G29" s="46"/>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="12"/>
       <c r="B30" s="12"/>
-      <c r="C30" s="89"/>
+      <c r="C30" s="85"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
-      <c r="G30" s="49"/>
+      <c r="G30" s="46"/>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
       <c r="B31" s="12"/>
-      <c r="C31" s="89"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
-      <c r="G31" s="49"/>
+      <c r="G31" s="46"/>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
       <c r="B32" s="12"/>
-      <c r="C32" s="89"/>
+      <c r="C32" s="85"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="15"/>
-      <c r="G32" s="49"/>
+      <c r="G32" s="46"/>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
       <c r="B33" s="12"/>
-      <c r="C33" s="89"/>
+      <c r="C33" s="85"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="49"/>
+      <c r="G33" s="46"/>
     </row>
     <row r="34" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="12"/>
-      <c r="C34" s="89"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="49"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="46"/>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="12"/>
       <c r="B35" s="12"/>
-      <c r="C35" s="89"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="15"/>
-      <c r="G35" s="49"/>
+      <c r="G35" s="46"/>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="12"/>
       <c r="B36" s="12"/>
-      <c r="C36" s="89"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="49"/>
+      <c r="G36" s="46"/>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
       <c r="B37" s="12"/>
-      <c r="C37" s="89"/>
+      <c r="C37" s="85"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
-      <c r="G37" s="49"/>
+      <c r="G37" s="46"/>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
       <c r="B38" s="12"/>
-      <c r="C38" s="89"/>
+      <c r="C38" s="85"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
-      <c r="G38" s="49"/>
+      <c r="G38" s="46"/>
     </row>
     <row r="39" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
       <c r="B39" s="12"/>
-      <c r="C39" s="89"/>
+      <c r="C39" s="85"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="49"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="46"/>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="12"/>
-      <c r="C40" s="89"/>
+      <c r="C40" s="85"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="49"/>
+      <c r="G40" s="46"/>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
-      <c r="C41" s="89"/>
+      <c r="C41" s="85"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="15"/>
-      <c r="G41" s="49"/>
+      <c r="G41" s="46"/>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="12"/>
       <c r="B42" s="12"/>
-      <c r="C42" s="89"/>
+      <c r="C42" s="85"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="49"/>
+      <c r="G42" s="46"/>
     </row>
     <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="37"/>
       <c r="B43" s="37"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="82"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
       <c r="F43" s="15"/>
-      <c r="G43" s="49"/>
+      <c r="G43" s="46"/>
     </row>
     <row r="44" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="84"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="49"/>
+      <c r="A44" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
